--- a/biology/Médecine/Hôtel-Dieu_d'Arthabaska/Hôtel-Dieu_d'Arthabaska.xlsx
+++ b/biology/Médecine/Hôtel-Dieu_d'Arthabaska/Hôtel-Dieu_d'Arthabaska.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4tel-Dieu_d%27Arthabaska</t>
+          <t>Hôtel-Dieu_d'Arthabaska</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Hôtel-Dieu d'Arthabaska est un centre hospitalier fondé en 1884 dans la ville de Victoriaville et tenu par les Religieuses Hospitalières de Saint-Joseph, il héberge des personnes âgées, des orphelins, des malades et des pauvres[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Hôtel-Dieu d'Arthabaska est un centre hospitalier fondé en 1884 dans la ville de Victoriaville et tenu par les Religieuses Hospitalières de Saint-Joseph, il héberge des personnes âgées, des orphelins, des malades et des pauvres.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4tel-Dieu_d%27Arthabaska</t>
+          <t>Hôtel-Dieu_d'Arthabaska</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Soins hospitaliers</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1906 la construction d’un hôpital d’une capacité de 120 lits est entreprise, conçu par l'architecte Louis Caron. L'ouverture officielle a lieu en juin 1908. Plusieurs agrandissements porteront à 190 le nombre de lits vers 1930. Une nouvelle aile construite en 1923 abrite une centaine d’enfants[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1906 la construction d’un hôpital d’une capacité de 120 lits est entreprise, conçu par l'architecte Louis Caron. L'ouverture officielle a lieu en juin 1908. Plusieurs agrandissements porteront à 190 le nombre de lits vers 1930. Une nouvelle aile construite en 1923 abrite une centaine d’enfants.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4tel-Dieu_d%27Arthabaska</t>
+          <t>Hôtel-Dieu_d'Arthabaska</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>École d’infirmières</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1953, une école d’infirmières est ouverte où 555 diplômes seront décernés. En 1972 l'école est transférée au Collège d’enseignement général et professionnel (CEGEP) de Victoriaville.
 </t>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>H%C3%B4tel-Dieu_d%27Arthabaska</t>
+          <t>Hôtel-Dieu_d'Arthabaska</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,9 +589,11 @@
           <t>De nos jours</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nommé de nos jour Centre intégré universitaire de santé et de services sociaux de la Mauricie-et-du-Centre-du-Québec, des travaux d'agrandissements sont faits et se poursuivent jusqu'en 2027[3],[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nommé de nos jour Centre intégré universitaire de santé et de services sociaux de la Mauricie-et-du-Centre-du-Québec, des travaux d'agrandissements sont faits et se poursuivent jusqu'en 2027,.
 </t>
         </is>
       </c>
@@ -586,7 +604,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>H%C3%B4tel-Dieu_d%27Arthabaska</t>
+          <t>Hôtel-Dieu_d'Arthabaska</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -604,9 +622,11 @@
           <t>Chapelle patrimoniale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La chapelle de l’hôpital, attachée à l'édifice, qui donne une partie de son cachet historique à l’endroit, devait  être conservée pour faire partie du projet. Le CIUSSS de la Mauricie-et-du-Centre-du-Québec confirme au Devoir que la chapelle sera rasée, bien qu’il reconnaisse d’emblée sa valeur historique et reconnaissant la valeur historique que peut avoir cette bâtisse patrimoniale pour la communauté[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chapelle de l’hôpital, attachée à l'édifice, qui donne une partie de son cachet historique à l’endroit, devait  être conservée pour faire partie du projet. Le CIUSSS de la Mauricie-et-du-Centre-du-Québec confirme au Devoir que la chapelle sera rasée, bien qu’il reconnaisse d’emblée sa valeur historique et reconnaissant la valeur historique que peut avoir cette bâtisse patrimoniale pour la communauté.
 </t>
         </is>
       </c>
